--- a/data_2018-01-05_redux/raw_numbers_binned_full_data_set.xlsx
+++ b/data_2018-01-05_redux/raw_numbers_binned_full_data_set.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven Silverberg\Documents\GitHub\imaging_paper_classification_data\data_2018-01-05_redux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5AC1490C-4F74-41BA-BA63-0B7FD91924F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B2478-16F5-498A-A31A-779EA78E2284}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_numbers_binned_full_data_se" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -862,11 +862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="J24" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1053,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1705</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2058</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>101008</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2727</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>0.20423134801203865</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2003</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>0.79576865198796132</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>867</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0.16252090450122419</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>465</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>7.8782735227700901E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>268</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>2.8068262366541486E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>163</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>201</v>
       </c>
@@ -1227,8 +1227,27 @@
       <c r="C25">
         <v>127</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>36</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>39</v>
+      </c>
+      <c r="U25">
+        <v>245</v>
+      </c>
+      <c r="V25">
+        <f>W25-U25</f>
+        <v>16</v>
+      </c>
+      <c r="W25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>148</v>
       </c>
@@ -1238,8 +1257,24 @@
       <c r="C26">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <f>Q25/S25</f>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="R26">
+        <f>R25/S25</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="U26">
+        <f>U25/W25</f>
+        <v>0.93869731800766287</v>
+      </c>
+      <c r="V26">
+        <f>V25/W25</f>
+        <v>6.1302681992337162E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>67</v>
       </c>
@@ -1249,8 +1284,16 @@
       <c r="C27">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f>Q26*R26</f>
+        <v>7.1005917159763315E-2</v>
+      </c>
+      <c r="U27">
+        <f>U26*V26</f>
+        <v>5.7544663172883544E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>37</v>
       </c>
@@ -1260,8 +1303,16 @@
       <c r="C28">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <f>Q27/S25</f>
+        <v>1.8206645425580337E-3</v>
+      </c>
+      <c r="U28">
+        <f>U27/W25</f>
+        <v>2.2047763667771474E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>58</v>
       </c>
@@ -1271,8 +1322,16 @@
       <c r="C29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <f>SQRT(Q28)</f>
+        <v>4.2669245863479165E-2</v>
+      </c>
+      <c r="U29">
+        <f>SQRT(U28)</f>
+        <v>1.4848489373593354E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -1283,7 +1342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
@@ -1294,7 +1353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>23</v>
       </c>
@@ -1304,8 +1363,20 @@
       <c r="C32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <f>U25-Q25</f>
+        <v>209</v>
+      </c>
+      <c r="R32">
+        <f>V25-R25</f>
+        <v>13</v>
+      </c>
+      <c r="S32">
+        <f>SUM(Q32:R32)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1318,8 +1389,16 @@
       <c r="M33" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <f>Q32/S32</f>
+        <v>0.94144144144144148</v>
+      </c>
+      <c r="R33">
+        <f>R32/S32</f>
+        <v>5.8558558558558557E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1329,8 +1408,12 @@
       <c r="C34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <f>Q33*R33</f>
+        <v>5.5129453778102425E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -1340,8 +1423,12 @@
       <c r="C35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <f>Q34/S32</f>
+        <v>2.4833087287433526E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1351,8 +1438,12 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <f>SQRT(Q35)</f>
+        <v>1.5758517470699306E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>SUM(A1:A36)</f>
         <v>14632</v>
@@ -1386,7 +1477,7 @@
         <v>48265</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>A37/$D37</f>
         <v>9.8021745392669807E-2</v>
@@ -1420,7 +1511,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>1-A38</f>
         <v>0.90197825460733017</v>
@@ -1452,7 +1543,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>A38*A39</f>
         <v>8.8413482822844419E-2</v>
@@ -1486,7 +1577,7 @@
         <v>0.93869731800766287</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>A40/$D37</f>
         <v>5.9229386977446978E-7</v>
@@ -1520,7 +1611,7 @@
         <v>6.1302681992337127E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>SQRT(A41)</f>
         <v>7.6960630829955509E-4</v>
@@ -1554,7 +1645,7 @@
         <v>5.7544663172883509E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O43">
         <f>O42/O39</f>
         <v>8.1141278418170274E-5</v>
@@ -1564,7 +1655,7 @@
         <v>2.204776366777146E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O44">
         <f>SQRT(O43)</f>
         <v>9.0078453815643552E-3</v>
@@ -1574,7 +1665,33 @@
         <v>1.4848489373593348E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f>F50*G50*H50</f>
+        <v>7.9325667322011129E-2</v>
+      </c>
+      <c r="J45">
+        <f>H45*K50</f>
+        <v>21578.326676268112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f>H45*H47</f>
+        <v>1.6276865961262195E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f>SQRT(H48)</f>
+        <v>2.0519040697367978E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f>SUM(F53:H53)</f>
+        <v>4.2103103114024337E-4</v>
+      </c>
       <c r="O48">
         <f>14681-7.4</f>
         <v>14673.6</v>
